--- a/Modified Data/MECH/MECH.xlsx
+++ b/Modified Data/MECH/MECH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ABHISHEK ARANGI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLSID\Mukesh\Time_Table_Management_Using_GenAI\Modified Data\MECH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F32DF97-4589-41F7-A478-597CBDC5CD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC92D59C-3B9E-498A-89D9-03FD84F22A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1575BEF7-B9A6-44CD-8AB0-E32E3B57ABDE}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{1575BEF7-B9A6-44CD-8AB0-E32E3B57ABDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,18 +39,6 @@
     <t>YEAR</t>
   </si>
   <si>
-    <t>subject code</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>FACUILTY</t>
-  </si>
-  <si>
-    <t>classes</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
@@ -322,13 +310,25 @@
   </si>
   <si>
     <t>ENGG PHY AND CHEM LAB</t>
+  </si>
+  <si>
+    <t>sections</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>subject_code</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +397,14 @@
       <name val="Times"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -655,75 +663,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -764,6 +707,56 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,978 +1073,905 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF94D68-F541-49E5-A378-BCB62783A983}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickBottom="1"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" thickBot="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="19" customFormat="1" thickBot="1">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" thickBot="1">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" thickBot="1">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" thickBot="1">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="D5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="D7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="D8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="C9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="33" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" thickBot="1">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="33" t="s">
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="33" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="33" t="s">
+      <c r="B12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" t="s">
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="33" t="s">
+      <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="D14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="33" t="s">
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="33" t="s">
+      <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="D16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="33" t="s">
+      <c r="D17" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="D18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="33" t="s">
+      <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="D19" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="26" t="s">
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="33" t="s">
+      <c r="D20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="C21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D21" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" t="s">
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="C22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D22" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="33" t="s">
+      <c r="C23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="D23" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="C24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" thickTop="1" thickBot="1">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="33" t="s">
+      <c r="D24" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="1:8" thickBot="1">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="33" t="s">
+      <c r="C25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="D25" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" thickBot="1">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" thickBot="1">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="33" t="s">
+      <c r="D26" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" thickBot="1">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D27" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" thickBot="1">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" thickBot="1">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="27" t="s">
+      <c r="D28" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" thickBot="1">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" thickBot="1">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="33" t="s">
+      <c r="C29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="D29" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" thickBot="1">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" thickBot="1">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="27" t="s">
+      <c r="D30" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" thickBot="1">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" thickBot="1">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="33" t="s">
+      <c r="C31" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="D31" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" thickBot="1">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="27" t="s">
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A32" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" thickBot="1">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="33" t="s">
+      <c r="B32" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="1:8" thickBot="1">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A32" t="s">
+      <c r="C33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="D33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="1:8" thickBot="1">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" thickBot="1">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="35" t="s">
+      <c r="D34" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8" thickBot="1">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" thickBot="1">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="35" t="s">
+      <c r="C35" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="D35" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="1:8" thickBot="1">
+      <c r="A36" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" thickBot="1">
-      <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="37" t="s">
+      <c r="C36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="D36" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" thickBot="1">
-      <c r="A36" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
-    </row>
-    <row r="38" spans="1:9" ht="15">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-    </row>
-    <row r="39" spans="1:9" ht="15">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-    </row>
-    <row r="40" spans="1:9" ht="15">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-    </row>
-    <row r="41" spans="1:9" ht="15">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-    </row>
-    <row r="42" spans="1:9" ht="15">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-    </row>
-    <row r="43" spans="1:9" ht="15">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
-    </row>
-    <row r="44" spans="1:9" ht="15">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-    </row>
-    <row r="45" spans="1:9" ht="15">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
-    </row>
-    <row r="46" spans="1:9" ht="15">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-    </row>
-    <row r="47" spans="1:9" ht="15">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-    </row>
-    <row r="48" spans="1:9" ht="15">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
+      <c r="E36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:8" ht="15">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" ht="15">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" ht="15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" ht="15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+    </row>
+    <row r="41" spans="1:8" ht="15">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" ht="15">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" ht="15">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+    </row>
+    <row r="44" spans="1:8" ht="15">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" ht="15">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" ht="15">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" ht="15">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+    </row>
+    <row r="48" spans="1:8" ht="15">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
     </row>
     <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
     </row>
     <row r="50" spans="1:3" ht="15">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" spans="1:3" ht="15">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="52" spans="1:3" ht="15">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="40"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
     </row>
     <row r="53" spans="1:3" ht="15">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="40"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
     </row>
     <row r="54" spans="1:3" ht="15">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
     </row>
     <row r="55" spans="1:3" ht="15">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
     </row>
     <row r="56" spans="1:3" ht="15">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" spans="1:3" ht="15">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
     </row>
     <row r="58" spans="1:3" ht="15">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
     </row>
     <row r="59" spans="1:3" ht="15">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
     </row>
     <row r="60" spans="1:3" ht="15">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="40"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
     </row>
     <row r="61" spans="1:3" ht="15">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="40"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
     </row>
     <row r="62" spans="1:3" ht="15">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="40"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
     </row>
     <row r="63" spans="1:3" ht="15">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="40"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
     </row>
     <row r="64" spans="1:3" ht="15">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="40"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
     </row>
     <row r="65" spans="1:3" ht="15">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="40"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
     </row>
     <row r="66" spans="1:3" ht="15">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="40"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
     </row>
     <row r="67" spans="1:3" ht="15">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="40"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="17"/>
     </row>
     <row r="68" spans="1:3" ht="15">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="40"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="17"/>
     </row>
     <row r="69" spans="1:3" thickBot="1">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="40"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>